--- a/KahootBlank.xlsx
+++ b/KahootBlank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirdholakia/Desktop/react-project-adp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2707D36-9BCA-D34A-81E6-9E8E5BC23918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA145B99-CA0F-0B4A-A812-B33805DC500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="338" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>which of the following is not a valid type of inheritence in java?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Single Inheritance</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Multiple Inheritance</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Plugins</t>
+  </si>
+  <si>
+    <t>Single Inheritance</t>
   </si>
 </sst>
 </file>
@@ -342,13 +342,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,7 +893,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -970,15 +970,15 @@
     </row>
     <row r="3" spans="1:27" ht="36" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1001,15 +1001,15 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1063,15 +1063,15 @@
     </row>
     <row r="6" spans="1:27" ht="18.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1121,7 +1121,7 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:27" ht="32">
+    <row r="8" spans="1:27" ht="51">
       <c r="A8" s="11"/>
       <c r="B8" s="13" t="s">
         <v>5</v>
@@ -1216,16 +1216,16 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="19">
@@ -1258,7 +1258,7 @@
       <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -1304,17 +1304,17 @@
       <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="19">
         <v>10</v>
@@ -1347,19 +1347,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="G13" s="19">
         <v>10</v>
